--- a/OtherFiles/TextTable.xlsx
+++ b/OtherFiles/TextTable.xlsx
@@ -49,7 +49,7 @@
     <t xml:space="preserve">Heya</t>
   </si>
   <si>
-    <t xml:space="preserve">سيتم تجاهل الصف الذي يكون أحد حقليه فارغاً.</t>
+    <t xml:space="preserve">سيتم تجاهل الصف الذي يكون فيه حقل النص الأصلي فارغاً.</t>
   </si>
   <si>
     <t xml:space="preserve">مرحبا</t>
@@ -318,11 +318,11 @@
   </sheetPr>
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10:B10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9609375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.953125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="44.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="44.39"/>
@@ -359,7 +359,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
